--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3298.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3298.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.048705043117915</v>
+        <v>0.6804673671722412</v>
       </c>
       <c r="B1">
-        <v>2.022877756382031</v>
+        <v>0.5094919204711914</v>
       </c>
       <c r="C1">
-        <v>2.848110647454511</v>
+        <v>0.5514360070228577</v>
       </c>
       <c r="D1">
-        <v>3.300686137865042</v>
+        <v>3.89283561706543</v>
       </c>
       <c r="E1">
-        <v>1.847261366263794</v>
+        <v>1.591897964477539</v>
       </c>
     </row>
   </sheetData>
